--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,25 +752,31 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,35 +786,41 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,15 +830,15 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,37 +978,43 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,42 +1231,48 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1208,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,13 +1568,19 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1480,19 +1601,25 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,13 +2049,19 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1888,28 +2073,34 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1920,25 +2111,25 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
@@ -1946,22 +2137,28 @@
       <c r="N44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>400</v>
+      </c>
+      <c r="P44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1976,54 +2173,66 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>700</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>900</v>
+      </c>
+      <c r="P46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2072,34 +2287,40 @@
         <v>2000</v>
       </c>
       <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
-      </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,14 +2333,14 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -2128,16 +2349,22 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2224,34 +2463,40 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
       </c>
       <c r="K52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="L52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2533,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2600</v>
       </c>
       <c r="J54" s="3">
         <v>2700</v>
@@ -2318,16 +2569,22 @@
         <v>2600</v>
       </c>
       <c r="L54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2370,54 +2631,60 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
@@ -2429,89 +2696,107 @@
         <v>900</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,27 +2831,33 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2574,11 +2865,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="E66" s="3">
         <v>3500</v>
       </c>
       <c r="F66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2900</v>
       </c>
       <c r="N66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,20 +3952,22 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3540,19 +3981,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,37 +4095,43 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>700</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
       </c>
       <c r="K100" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L100" s="3">
         <v>500</v>
       </c>
       <c r="M100" s="3">
+        <v>900</v>
+      </c>
+      <c r="N100" s="3">
+        <v>500</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,23 +799,23 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,12 +846,12 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-900</v>
       </c>
       <c r="G18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,52 +1268,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1293,11 +1333,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-900</v>
       </c>
       <c r="G27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1632,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1607,19 +1668,22 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-900</v>
       </c>
       <c r="G33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-900</v>
       </c>
       <c r="G35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,40 +2066,43 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2145,19 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2079,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2088,10 +2181,10 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2099,13 +2192,16 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2117,13 +2213,13 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -2132,7 +2228,7 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2251,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2161,7 +2260,7 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2179,7 +2278,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2298,46 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2380,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
@@ -2293,13 +2401,13 @@
         <v>2000</v>
       </c>
       <c r="H48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2308,19 +2416,22 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2339,11 +2450,11 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -2355,7 +2466,7 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2469,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
@@ -2484,7 +2604,7 @@
         <v>1300</v>
       </c>
       <c r="M52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
@@ -2493,10 +2613,13 @@
         <v>1100</v>
       </c>
       <c r="P52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2637,34 +2768,37 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,48 +2809,51 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
       </c>
       <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>1500</v>
@@ -2725,25 +2862,25 @@
         <v>1500</v>
       </c>
       <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1200</v>
       </c>
       <c r="O59" s="3">
         <v>1200</v>
@@ -2751,52 +2888,58 @@
       <c r="P59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2500</v>
       </c>
       <c r="J60" s="3">
         <v>2500</v>
       </c>
       <c r="K60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,10 +2980,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,19 +2994,19 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1200</v>
       </c>
       <c r="G62" s="3">
         <v>1200</v>
       </c>
       <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
         <v>1300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2871,8 +3017,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
       </c>
       <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-900</v>
       </c>
       <c r="G81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,23 +4174,24 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3987,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4313,16 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -4101,17 +4331,17 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4119,19 +4349,22 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>500</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
       </c>
       <c r="K100" s="3">
+        <v>500</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +4673,42 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>400</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,23 +809,23 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,12 +859,12 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1006,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1009,35 +1029,38 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-900</v>
       </c>
       <c r="G18" s="3">
         <v>-900</v>
       </c>
       <c r="H18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,58 +1305,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1336,11 +1376,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-900</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
       </c>
       <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,8 +1707,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1671,19 +1732,22 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-900</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
       </c>
       <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-900</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
       </c>
       <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2140,14 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2069,40 +2156,43 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,8 +2252,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2175,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2184,10 +2277,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2195,16 +2288,19 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2216,13 +2312,13 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -2231,7 +2327,7 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
@@ -2242,19 +2338,22 @@
       <c r="Q44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2263,7 +2362,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2281,7 +2380,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2289,55 +2388,61 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,7 +2500,7 @@
         <v>1900</v>
       </c>
       <c r="E48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
@@ -2404,13 +2512,13 @@
         <v>2000</v>
       </c>
       <c r="I48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -2419,45 +2527,48 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -2469,7 +2580,7 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2592,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
@@ -2607,7 +2727,7 @@
         <v>1300</v>
       </c>
       <c r="N52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1100</v>
@@ -2616,10 +2736,13 @@
         <v>1100</v>
       </c>
       <c r="Q52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2771,39 +2902,42 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -2812,51 +2946,54 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
       </c>
       <c r="L58" s="3">
+        <v>900</v>
+      </c>
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
@@ -2865,25 +3002,25 @@
         <v>1500</v>
       </c>
       <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
@@ -2891,55 +3028,61 @@
       <c r="Q59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2500</v>
       </c>
       <c r="K60" s="3">
         <v>2500</v>
       </c>
       <c r="L60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,33 +3126,36 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
       </c>
       <c r="I62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J62" s="3">
         <v>1300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2800</v>
       </c>
       <c r="K66" s="3">
         <v>2800</v>
       </c>
       <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-900</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
       </c>
       <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4395,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4190,11 +4411,11 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4211,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4543,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -4334,17 +4564,17 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4352,19 +4582,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
       </c>
       <c r="L100" s="3">
+        <v>500</v>
+      </c>
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>400</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,25 +779,31 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,35 +825,41 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,15 +881,15 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1042,70 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>4600</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,46 +1247,52 @@
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,23 +1325,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,67 +1378,73 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1379,14 +1458,14 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1396,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,11 +1831,11 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1735,19 +1856,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1858,23 +1997,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +2035,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,25 +2420,31 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2271,42 +2456,48 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2315,25 +2506,25 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -2341,34 +2532,40 @@
       <c r="R44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+      <c r="T44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2383,66 +2580,78 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
       <c r="Q46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>900</v>
+      </c>
+      <c r="T46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,22 +2700,28 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2000</v>
       </c>
       <c r="H48" s="3">
         <v>2000</v>
@@ -2515,34 +2730,40 @@
         <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
-      </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2571,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>400</v>
@@ -2583,16 +2804,22 @@
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,16 +2924,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2715,34 +2954,40 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1300</v>
       </c>
       <c r="O52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="P52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1100</v>
       </c>
       <c r="R52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,40 +3036,46 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2600</v>
       </c>
       <c r="N54" s="3">
         <v>2700</v>
@@ -2833,16 +3084,22 @@
         <v>2600</v>
       </c>
       <c r="P54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +3140,15 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2905,66 +3166,72 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
-        <v>700</v>
-      </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1100</v>
       </c>
       <c r="N58" s="3">
         <v>900</v>
@@ -2976,113 +3243,131 @@
         <v>900</v>
       </c>
       <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>900</v>
+      </c>
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2000</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
       </c>
       <c r="H59" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>1500</v>
       </c>
       <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1200</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,39 +3414,45 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3169,11 +3460,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3300</v>
       </c>
       <c r="I66" s="3">
         <v>3500</v>
       </c>
       <c r="J66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2900</v>
       </c>
       <c r="R66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-26800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,14 +4432,14 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,7 +4846,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4414,14 +4855,14 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4435,19 +4876,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,7 +5014,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -4567,37 +5026,43 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4828,46 +5319,52 @@
         <v>1100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>700</v>
       </c>
       <c r="N100" s="3">
         <v>500</v>
       </c>
       <c r="O100" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
+        <v>900</v>
+      </c>
+      <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>1100</v>
       </c>
       <c r="F17" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
@@ -1203,7 +1203,7 @@
         <v>900</v>
       </c>
       <c r="J17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
@@ -1247,7 +1247,7 @@
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
@@ -1259,7 +1259,7 @@
         <v>-900</v>
       </c>
       <c r="J18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,102 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -785,30 +793,36 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -831,71 +845,77 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,28 +1082,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
@@ -1077,35 +1117,41 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1231,21 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>4600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
@@ -1200,54 +1254,60 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1100</v>
+        <v>-4200</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>-4600</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
@@ -1256,43 +1316,49 @@
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1379,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1340,14 +1408,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1369,64 +1437,76 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,20 +1517,20 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1464,14 +1544,14 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1561,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,11 +1959,11 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1862,19 +1984,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2119,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2012,14 +2152,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2437,20 +2623,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2462,48 +2648,54 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2512,25 +2704,25 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
@@ -2538,40 +2730,46 @@
       <c r="T44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2586,72 +2784,84 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>900</v>
+      </c>
+      <c r="V46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,28 +2916,34 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2000</v>
@@ -2736,34 +2952,40 @@
         <v>2000</v>
       </c>
       <c r="L48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
-      </c>
       <c r="O48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2798,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
@@ -2810,16 +3032,22 @@
         <v>400</v>
       </c>
       <c r="R49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>500</v>
+      </c>
+      <c r="V49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,11 +3181,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2960,34 +3200,40 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1300</v>
       </c>
       <c r="P52" s="3">
         <v>1300</v>
       </c>
       <c r="Q52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="R52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="S52" s="3">
         <v>1100</v>
       </c>
       <c r="T52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,46 +3288,52 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2600</v>
       </c>
       <c r="P54" s="3">
         <v>2700</v>
@@ -3090,16 +3342,22 @@
         <v>2600</v>
       </c>
       <c r="R54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3402,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3172,72 +3434,78 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
@@ -3249,125 +3517,143 @@
         <v>900</v>
       </c>
       <c r="S58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>900</v>
+      </c>
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>1500</v>
       </c>
       <c r="J59" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
       </c>
       <c r="L59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1200</v>
       </c>
       <c r="T59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,45 +3706,51 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>800</v>
       </c>
       <c r="F62" s="3">
+        <v>800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>800</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3466,11 +3758,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3300</v>
       </c>
       <c r="K66" s="3">
         <v>3500</v>
       </c>
       <c r="L66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2900</v>
       </c>
       <c r="T66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-34300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-27800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-26800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-25400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,14 +4836,14 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,22 +5277,24 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -4861,14 +5303,14 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4882,19 +5324,25 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,22 +5459,28 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -5032,37 +5492,43 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,16 +5793,22 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1100</v>
+        <v>4400</v>
       </c>
       <c r="E100" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F100" s="3">
         <v>1100</v>
@@ -5325,46 +5817,52 @@
         <v>1100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>700</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="R100" s="3">
         <v>500</v>
       </c>
       <c r="S100" s="3">
+        <v>900</v>
+      </c>
+      <c r="T100" s="3">
+        <v>500</v>
+      </c>
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,109 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -799,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -816,17 +819,20 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -851,23 +857,23 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -878,13 +884,16 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -913,12 +922,12 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-100</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-400</v>
       </c>
       <c r="V18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1414,11 +1447,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1443,75 +1476,81 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
       </c>
       <c r="V21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1523,17 +1562,17 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1550,11 +1589,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-900</v>
       </c>
       <c r="L27" s="3">
         <v>-900</v>
       </c>
       <c r="M27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,35 +1996,38 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1990,19 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2158,11 +2227,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-900</v>
       </c>
       <c r="L33" s="3">
         <v>-900</v>
       </c>
       <c r="M33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-900</v>
       </c>
       <c r="L35" s="3">
         <v>-900</v>
       </c>
       <c r="M35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,28 +2573,29 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2518,40 +2604,43 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,8 +2721,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2638,8 +2730,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2654,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2663,10 +2755,10 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2686,19 +2781,19 @@
         <v>700</v>
       </c>
       <c r="F44" s="3">
+        <v>700</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2710,13 +2805,13 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2725,7 +2820,7 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
@@ -2736,34 +2831,37 @@
       <c r="V44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2772,7 +2870,7 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2790,7 +2888,7 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2798,70 +2896,76 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2100</v>
       </c>
       <c r="F48" s="3">
         <v>2100</v>
       </c>
       <c r="G48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
       </c>
       <c r="J48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>2000</v>
@@ -2958,13 +3065,13 @@
         <v>2000</v>
       </c>
       <c r="N48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -2973,19 +3080,22 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
+        <v>400</v>
+      </c>
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3026,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>400</v>
@@ -3038,7 +3148,7 @@
         <v>400</v>
       </c>
       <c r="T49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U49" s="3">
         <v>500</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,22 +3286,25 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3206,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1300</v>
@@ -3221,7 +3340,7 @@
         <v>1300</v>
       </c>
       <c r="S52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T52" s="3">
         <v>1100</v>
@@ -3230,10 +3349,13 @@
         <v>1100</v>
       </c>
       <c r="V52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2800</v>
       </c>
       <c r="H54" s="3">
         <v>2800</v>
       </c>
       <c r="I54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3440,34 +3570,37 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,19 +3608,19 @@
         <v>2500</v>
       </c>
       <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1200</v>
       </c>
       <c r="H58" s="3">
         <v>1200</v>
       </c>
       <c r="I58" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
@@ -3496,66 +3629,69 @@
         <v>700</v>
       </c>
       <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
       </c>
       <c r="Q58" s="3">
+        <v>900</v>
+      </c>
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>1500</v>
@@ -3564,25 +3700,25 @@
         <v>1500</v>
       </c>
       <c r="N59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1200</v>
       </c>
       <c r="U59" s="3">
         <v>1200</v>
@@ -3590,70 +3726,76 @@
       <c r="V59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2500</v>
       </c>
       <c r="P60" s="3">
         <v>2500</v>
       </c>
       <c r="Q60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3712,18 +3854,21 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
@@ -3732,28 +3877,28 @@
         <v>800</v>
       </c>
       <c r="H62" s="3">
+        <v>800</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
       </c>
       <c r="K62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L62" s="3">
         <v>1100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1200</v>
       </c>
       <c r="M62" s="3">
         <v>1200</v>
       </c>
       <c r="N62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="3">
         <v>1300</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3764,8 +3909,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2800</v>
       </c>
       <c r="P66" s="3">
         <v>2800</v>
       </c>
       <c r="Q66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-900</v>
       </c>
       <c r="L81" s="3">
         <v>-900</v>
       </c>
       <c r="M81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4842,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,25 +5498,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5309,11 +5529,11 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5330,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,25 +5691,28 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -5498,17 +5727,17 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5516,19 +5745,22 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,19 +6041,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1100</v>
       </c>
       <c r="G100" s="3">
         <v>1100</v>
@@ -5823,46 +6068,49 @@
         <v>1100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
+        <v>500</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
-      </c>
-      <c r="M102" s="3">
-        <v>400</v>
       </c>
       <c r="N102" s="3">
         <v>400</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -805,40 +813,46 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -860,80 +874,86 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -952,8 +972,14 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,28 +1156,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
@@ -1145,35 +1185,41 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,28 +1311,30 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
@@ -1289,63 +1343,69 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-1100</v>
@@ -1354,43 +1414,49 @@
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1480,15 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1450,14 +1518,14 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1547,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1700</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1636,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1565,20 +1645,20 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1592,14 +1672,14 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1689,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,15 +2147,15 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2053,19 +2175,25 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2328,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2230,14 +2370,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2746,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,64 +2757,70 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2724,20 +2910,20 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2749,57 +2935,63 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2808,25 +3000,25 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>400</v>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,40 +3041,40 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2891,81 +3089,93 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2300</v>
       </c>
       <c r="F46" s="3">
         <v>1200</v>
       </c>
       <c r="G46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>700</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="W46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,37 +3239,43 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2000</v>
       </c>
       <c r="M48" s="3">
         <v>2000</v>
@@ -3068,34 +3284,40 @@
         <v>2000</v>
       </c>
       <c r="O48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>400</v>
-      </c>
       <c r="R48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
       </c>
       <c r="T48" s="3">
+        <v>400</v>
+      </c>
+      <c r="U48" s="3">
+        <v>400</v>
+      </c>
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3139,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>400</v>
@@ -3151,16 +3373,22 @@
         <v>400</v>
       </c>
       <c r="U49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3328,34 +3568,40 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1300</v>
       </c>
       <c r="S52" s="3">
         <v>1300</v>
       </c>
       <c r="T52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="U52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="V52" s="3">
         <v>1100</v>
       </c>
       <c r="W52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,55 +3665,61 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E54" s="3">
         <v>5800</v>
       </c>
       <c r="F54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2600</v>
       </c>
       <c r="S54" s="3">
         <v>2700</v>
@@ -3476,16 +3728,22 @@
         <v>2600</v>
       </c>
       <c r="U54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,28 +3794,30 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3573,34 +3835,40 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,43 +3879,43 @@
         <v>2500</v>
       </c>
       <c r="F58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1100</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
@@ -3659,148 +3927,166 @@
         <v>900</v>
       </c>
       <c r="V58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>900</v>
+      </c>
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2000</v>
       </c>
       <c r="L59" s="3">
         <v>1500</v>
       </c>
       <c r="M59" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N59" s="3">
         <v>1500</v>
       </c>
       <c r="O59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1200</v>
       </c>
       <c r="W59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3857,54 +4143,60 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
       <c r="I62" s="3">
+        <v>800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>800</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3912,11 +4204,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3300</v>
       </c>
       <c r="N66" s="3">
         <v>3500</v>
       </c>
       <c r="O66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2900</v>
       </c>
       <c r="W66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-40300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-38600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-34300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-26800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-26000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-25400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-24500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-16000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,14 +5441,14 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5939,33 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -5532,14 +5974,14 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -5553,19 +5995,25 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-500</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,31 +6148,37 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -5730,37 +6190,43 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,25 +6530,31 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1100</v>
       </c>
       <c r="I100" s="3">
         <v>1100</v>
@@ -6071,46 +6563,52 @@
         <v>1100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="L100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>700</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="U100" s="3">
         <v>500</v>
       </c>
       <c r="V100" s="3">
+        <v>900</v>
+      </c>
+      <c r="W100" s="3">
+        <v>500</v>
+      </c>
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -819,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -836,26 +840,29 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -880,23 +887,23 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -907,23 +914,26 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E10" s="3">
         <v>-300</v>
       </c>
       <c r="F10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1800</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -951,12 +961,12 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,13 +1164,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1162,64 +1182,67 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-100</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>1600</v>
       </c>
       <c r="F17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1300</v>
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
         <v>-1300</v>
       </c>
       <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-400</v>
       </c>
       <c r="Y18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,17 +1515,18 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1524,11 +1558,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1553,93 +1587,99 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-400</v>
       </c>
       <c r="Y21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1651,17 +1691,17 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1678,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-900</v>
       </c>
       <c r="O27" s="3">
         <v>-900</v>
       </c>
       <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,12 +2214,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2181,19 +2242,22 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,17 +2401,20 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2376,11 +2446,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-900</v>
       </c>
       <c r="O33" s="3">
         <v>-900</v>
       </c>
       <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-900</v>
       </c>
       <c r="O35" s="3">
         <v>-900</v>
       </c>
       <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,28 +2844,28 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2787,40 +2874,43 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,13 +2980,16 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2916,8 +3009,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2925,8 +3018,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2941,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -2950,10 +3043,10 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2970,10 +3066,10 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
@@ -2982,19 +3078,19 @@
         <v>700</v>
       </c>
       <c r="I44" s="3">
+        <v>700</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -3006,13 +3102,13 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -3021,7 +3117,7 @@
         <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>400</v>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3047,28 +3146,28 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -3077,7 +3176,7 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3095,7 +3194,7 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,70 +3214,73 @@
         <v>800</v>
       </c>
       <c r="E46" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>1200</v>
       </c>
       <c r="G46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,40 +3350,43 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2100</v>
       </c>
       <c r="I48" s="3">
         <v>2100</v>
       </c>
       <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>1900</v>
       </c>
       <c r="M48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="N48" s="3">
         <v>2000</v>
@@ -3290,13 +3398,13 @@
         <v>2000</v>
       </c>
       <c r="Q48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>400</v>
@@ -3305,19 +3413,22 @@
         <v>400</v>
       </c>
       <c r="V48" s="3">
+        <v>400</v>
+      </c>
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3367,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>400</v>
@@ -3379,7 +3490,7 @@
         <v>400</v>
       </c>
       <c r="W49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X49" s="3">
         <v>500</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3574,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1300</v>
       </c>
       <c r="T52" s="3">
         <v>1300</v>
@@ -3589,7 +3709,7 @@
         <v>1300</v>
       </c>
       <c r="V52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="W52" s="3">
         <v>1100</v>
@@ -3598,10 +3718,13 @@
         <v>1100</v>
       </c>
       <c r="Y52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,70 +3806,73 @@
         <v>5300</v>
       </c>
       <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2800</v>
       </c>
       <c r="K54" s="3">
         <v>2800</v>
       </c>
       <c r="L54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,22 +3936,22 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3841,39 +3972,42 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>800</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
       </c>
       <c r="V57" s="3">
+        <v>800</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
@@ -3885,19 +4019,19 @@
         <v>2500</v>
       </c>
       <c r="H58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1200</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
       </c>
       <c r="L58" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
@@ -3906,75 +4040,78 @@
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
       </c>
       <c r="T58" s="3">
+        <v>900</v>
+      </c>
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>1500</v>
@@ -3983,25 +4120,25 @@
         <v>1500</v>
       </c>
       <c r="Q59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1200</v>
       </c>
       <c r="X59" s="3">
         <v>1200</v>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,79 +4158,82 @@
         <v>6700</v>
       </c>
       <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2500</v>
       </c>
       <c r="S60" s="3">
         <v>2500</v>
       </c>
       <c r="T60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4149,27 +4292,30 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>800</v>
       </c>
       <c r="I62" s="3">
         <v>800</v>
@@ -4178,28 +4324,28 @@
         <v>800</v>
       </c>
       <c r="K62" s="3">
+        <v>800</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1000</v>
       </c>
       <c r="M62" s="3">
         <v>1000</v>
       </c>
       <c r="N62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1200</v>
       </c>
       <c r="P62" s="3">
         <v>1200</v>
       </c>
       <c r="Q62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R62" s="3">
         <v>1300</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4210,8 +4356,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2800</v>
       </c>
       <c r="S66" s="3">
         <v>2800</v>
       </c>
       <c r="T66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-900</v>
       </c>
       <c r="O81" s="3">
         <v>-900</v>
       </c>
       <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5447,11 +5646,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-500</v>
       </c>
       <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,25 +6171,25 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -5980,11 +6201,11 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -6001,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-500</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,34 +6381,37 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -6196,17 +6426,17 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6214,19 +6444,22 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1500</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,28 +6779,31 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1100</v>
       </c>
       <c r="J100" s="3">
         <v>1100</v>
@@ -6569,46 +6815,49 @@
         <v>1100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
-      </c>
-      <c r="R100" s="3">
-        <v>500</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
+        <v>500</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
-      </c>
-      <c r="P102" s="3">
-        <v>400</v>
       </c>
       <c r="Q102" s="3">
         <v>400</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,136 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -826,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -843,29 +846,32 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -890,23 +896,23 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,17 +935,17 @@
         <v>-200</v>
       </c>
       <c r="E10" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-300</v>
       </c>
       <c r="G10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H10" s="3">
         <v>-1800</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -964,12 +973,12 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,17 +1183,20 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1185,64 +1204,67 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-100</v>
       </c>
       <c r="N14" s="3">
         <v>-100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1600</v>
       </c>
       <c r="F17" s="3">
         <v>1600</v>
       </c>
       <c r="G17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>400</v>
       </c>
       <c r="Z17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1300</v>
       </c>
       <c r="F18" s="3">
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-400</v>
       </c>
       <c r="Z18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,11 +1558,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1561,11 +1594,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1590,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-400</v>
       </c>
       <c r="Z21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,16 +1712,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1694,17 +1733,17 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1721,11 +1760,11 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1738,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
       </c>
       <c r="P27" s="3">
         <v>-900</v>
       </c>
       <c r="Q27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,12 +2277,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2245,19 +2305,22 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,11 +2482,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2449,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
       </c>
       <c r="P33" s="3">
         <v>-900</v>
       </c>
       <c r="Q33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
       </c>
       <c r="P35" s="3">
         <v>-900</v>
       </c>
       <c r="Q35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,40 +2920,41 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2877,40 +2963,43 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,17 +3072,20 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -3012,8 +3104,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -3021,8 +3113,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3037,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3046,10 +3138,10 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3057,22 +3149,25 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>300</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
@@ -3081,19 +3176,19 @@
         <v>700</v>
       </c>
       <c r="J44" s="3">
+        <v>700</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -3105,13 +3200,13 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -3120,7 +3215,7 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X44" s="3">
         <v>400</v>
@@ -3131,13 +3226,16 @@
       <c r="Z44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -3149,28 +3247,28 @@
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -3179,7 +3277,7 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3197,7 +3295,7 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3205,82 +3303,88 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
       </c>
       <c r="F46" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>1200</v>
       </c>
       <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>500</v>
       </c>
       <c r="V46" s="3">
         <v>500</v>
       </c>
       <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,43 +3457,46 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2100</v>
       </c>
       <c r="J48" s="3">
         <v>2100</v>
       </c>
       <c r="K48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L48" s="3">
         <v>2000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>1900</v>
       </c>
       <c r="N48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="O48" s="3">
         <v>2000</v>
@@ -3401,13 +3508,13 @@
         <v>2000</v>
       </c>
       <c r="R48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
@@ -3416,19 +3523,22 @@
         <v>400</v>
       </c>
       <c r="W48" s="3">
+        <v>400</v>
+      </c>
+      <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3481,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
         <v>400</v>
@@ -3493,7 +3603,7 @@
         <v>400</v>
       </c>
       <c r="X49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y49" s="3">
         <v>500</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3697,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1300</v>
       </c>
       <c r="U52" s="3">
         <v>1300</v>
@@ -3712,7 +3831,7 @@
         <v>1300</v>
       </c>
       <c r="W52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="X52" s="3">
         <v>1100</v>
@@ -3721,10 +3840,13 @@
         <v>1100</v>
       </c>
       <c r="Z52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="E54" s="3">
         <v>5300</v>
       </c>
       <c r="F54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2800</v>
       </c>
       <c r="L54" s="3">
         <v>2800</v>
       </c>
       <c r="M54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,34 +4056,35 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3975,42 +4105,45 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>800</v>
       </c>
       <c r="V57" s="3">
         <v>800</v>
       </c>
       <c r="W57" s="3">
+        <v>800</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2500</v>
       </c>
       <c r="F58" s="3">
         <v>2500</v>
@@ -4022,19 +4155,19 @@
         <v>2500</v>
       </c>
       <c r="I58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1200</v>
       </c>
       <c r="L58" s="3">
         <v>1200</v>
       </c>
       <c r="M58" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
@@ -4043,78 +4176,81 @@
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>900</v>
       </c>
       <c r="T58" s="3">
         <v>900</v>
       </c>
       <c r="U58" s="3">
+        <v>900</v>
+      </c>
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1500</v>
@@ -4123,25 +4259,25 @@
         <v>1500</v>
       </c>
       <c r="R59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
       <c r="V59" s="3">
+        <v>700</v>
+      </c>
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1200</v>
       </c>
       <c r="Y59" s="3">
         <v>1200</v>
@@ -4149,94 +4285,100 @@
       <c r="Z59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6700</v>
+        <v>7600</v>
       </c>
       <c r="E60" s="3">
         <v>6700</v>
       </c>
       <c r="F60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2500</v>
       </c>
       <c r="T60" s="3">
         <v>2500</v>
       </c>
       <c r="U60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4295,30 +4437,33 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>800</v>
       </c>
       <c r="J62" s="3">
         <v>800</v>
@@ -4327,28 +4472,28 @@
         <v>800</v>
       </c>
       <c r="L62" s="3">
+        <v>800</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1000</v>
       </c>
       <c r="N62" s="3">
         <v>1000</v>
       </c>
       <c r="O62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1200</v>
       </c>
       <c r="Q62" s="3">
         <v>1200</v>
       </c>
       <c r="R62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S62" s="3">
         <v>1300</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4359,8 +4504,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2800</v>
       </c>
       <c r="T66" s="3">
         <v>2800</v>
       </c>
       <c r="U66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
       </c>
       <c r="P81" s="3">
         <v>-900</v>
       </c>
       <c r="Q81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5649,11 +5847,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,37 +6381,38 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H91" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -6204,11 +6424,11 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6225,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-500</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,37 +6610,40 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -6429,17 +6658,17 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6447,19 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1500</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,31 +7024,34 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1100</v>
       </c>
       <c r="K100" s="3">
         <v>1100</v>
@@ -6818,46 +7063,49 @@
         <v>1100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
-      </c>
-      <c r="S100" s="3">
-        <v>500</v>
       </c>
       <c r="T100" s="3">
         <v>500</v>
       </c>
       <c r="U100" s="3">
+        <v>500</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>400</v>
       </c>
       <c r="R102" s="3">
         <v>400</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BASA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>BASA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,150 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -832,52 +840,58 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -899,59 +913,65 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-1800</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -976,15 +996,15 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
@@ -1003,8 +1023,14 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,49 +1220,55 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>-100</v>
@@ -1236,35 +1276,41 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2900</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,40 +1418,42 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
@@ -1408,75 +1462,81 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-1100</v>
@@ -1485,43 +1545,49 @@
         <v>-500</v>
       </c>
       <c r="P18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,14 +1629,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1597,14 +1665,14 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1694,97 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1795,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1727,7 +1807,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1736,20 +1816,20 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1763,14 +1843,14 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1860,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,15 +2402,15 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2308,19 +2430,25 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,14 +2625,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2521,14 +2661,14 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2690,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3093,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,76 +3104,82 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,22 +3255,28 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3107,20 +3293,20 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3132,69 +3318,75 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>700</v>
       </c>
       <c r="J44" s="3">
         <v>700</v>
       </c>
       <c r="K44" s="3">
+        <v>700</v>
+      </c>
+      <c r="L44" s="3">
+        <v>700</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -3203,25 +3395,25 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>100</v>
-      </c>
-      <c r="U44" s="3">
-        <v>300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
       </c>
       <c r="X44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z44" s="3">
         <v>400</v>
@@ -3229,19 +3421,25 @@
       <c r="AA44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -3250,40 +3448,40 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3298,93 +3496,105 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2300</v>
       </c>
       <c r="J46" s="3">
         <v>1200</v>
       </c>
       <c r="K46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>700</v>
       </c>
       <c r="Y46" s="3">
         <v>500</v>
       </c>
       <c r="Z46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AA46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,49 +3670,55 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4300</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2000</v>
       </c>
       <c r="Q48" s="3">
         <v>2000</v>
@@ -3511,34 +3727,40 @@
         <v>2000</v>
       </c>
       <c r="S48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>400</v>
-      </c>
       <c r="V48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>400</v>
       </c>
       <c r="X48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z48" s="3">
         <v>500</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3594,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W49" s="3">
         <v>400</v>
@@ -3606,16 +3828,22 @@
         <v>400</v>
       </c>
       <c r="Y49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3819,34 +4059,40 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1300</v>
       </c>
       <c r="W52" s="3">
         <v>1300</v>
       </c>
       <c r="X52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Y52" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Z52" s="3">
         <v>1100</v>
       </c>
       <c r="AA52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,67 +4168,73 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4800</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5200</v>
       </c>
       <c r="I54" s="3">
         <v>5800</v>
       </c>
       <c r="J54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>2600</v>
       </c>
       <c r="W54" s="3">
         <v>2700</v>
@@ -3991,16 +4243,22 @@
         <v>2600</v>
       </c>
       <c r="Y54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>2100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,40 +4317,42 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -4108,48 +4370,54 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G58" s="3">
         <v>3000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2500</v>
       </c>
       <c r="H58" s="3">
         <v>2500</v>
@@ -4158,43 +4426,43 @@
         <v>2500</v>
       </c>
       <c r="J58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1100</v>
       </c>
       <c r="W58" s="3">
         <v>900</v>
@@ -4206,167 +4474,185 @@
         <v>900</v>
       </c>
       <c r="Z58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2000</v>
       </c>
       <c r="P59" s="3">
         <v>1500</v>
       </c>
       <c r="Q59" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="R59" s="3">
         <v>1500</v>
       </c>
       <c r="S59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1200</v>
       </c>
       <c r="AA59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,17 +4660,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4440,66 +4726,72 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
       </c>
       <c r="M62" s="3">
+        <v>800</v>
+      </c>
+      <c r="N62" s="3">
+        <v>800</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4507,11 +4799,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8600</v>
+        <v>6900</v>
       </c>
       <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3300</v>
       </c>
       <c r="R66" s="3">
         <v>3500</v>
       </c>
       <c r="S66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>2900</v>
       </c>
       <c r="AA66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51500</v>
+        <v>-55200</v>
       </c>
       <c r="E72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-50400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-49600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-47600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-40300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-38600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-34300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-29600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-26800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-26000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-24500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-21800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-21100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-17900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-16700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-16000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-13600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3800</v>
+        <v>-6100</v>
       </c>
       <c r="E76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5850,14 +6248,14 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,43 +6822,45 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -6427,14 +6869,14 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -6448,19 +6890,25 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,43 +7067,49 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -6661,37 +7121,43 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,37 +7513,43 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1100</v>
       </c>
       <c r="M100" s="3">
         <v>1100</v>
@@ -7066,46 +7558,52 @@
         <v>1100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="P100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
-      </c>
-      <c r="U100" s="3">
-        <v>500</v>
-      </c>
-      <c r="V100" s="3">
-        <v>700</v>
       </c>
       <c r="W100" s="3">
         <v>500</v>
       </c>
       <c r="X100" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Y100" s="3">
         <v>500</v>
       </c>
       <c r="Z100" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB100" s="3">
         <v>1000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-300</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>
